--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>11.8300878010633</v>
+        <v>11.83261465777382</v>
       </c>
       <c r="G2" t="n">
-        <v>11.50394936468762</v>
+        <v>11.50116354238431</v>
       </c>
       <c r="H2" t="n">
-        <v>12.15587739106927</v>
+        <v>12.15279888759635</v>
       </c>
       <c r="I2" t="n">
-        <v>1.958841821256518</v>
+        <v>1.958813792001651</v>
       </c>
       <c r="J2" t="n">
-        <v>1.937900605900891</v>
+        <v>1.937839600683897</v>
       </c>
       <c r="K2" t="n">
-        <v>1.980096812796662</v>
+        <v>1.980032990910635</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1523799620424501</v>
+        <v>0.1523801551164031</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1507302864861007</v>
+        <v>0.1507309817637574</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1540591539046757</v>
+        <v>0.1540487797140341</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001989407496787088</v>
+        <v>0.001988021721509289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001205460484334994</v>
+        <v>0.001207035470781618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002930010584954034</v>
+        <v>0.002943670947585855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001843013538006623</v>
+        <v>0.001841768955962366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001108851672133394</v>
+        <v>0.001110160080571838</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002721466766346973</v>
+        <v>0.002734688622654402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002073446182306253</v>
+        <v>0.002072067544780437</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001274673063837874</v>
+        <v>0.001276433701716771</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003027865166625904</v>
+        <v>0.003042258487855712</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.1537386519519979</v>
       </c>
       <c r="F4" t="n">
-        <v>11.83207720856009</v>
+        <v>11.83460267949533</v>
       </c>
       <c r="G4" t="n">
-        <v>11.50515482517196</v>
+        <v>11.50237057785509</v>
       </c>
       <c r="H4" t="n">
-        <v>12.15880740165423</v>
+        <v>12.15574255854394</v>
       </c>
       <c r="I4" t="n">
-        <v>1.960684834794525</v>
+        <v>1.960655560957613</v>
       </c>
       <c r="J4" t="n">
-        <v>1.939009457573024</v>
+        <v>1.938949760764469</v>
       </c>
       <c r="K4" t="n">
-        <v>1.98281827956301</v>
+        <v>1.982767679533289</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1544534082247563</v>
+        <v>0.1544522226611836</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1520049595499386</v>
+        <v>0.1520074154654741</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1570870190713016</v>
+        <v>0.1570910382018899</v>
       </c>
     </row>
   </sheetData>
